--- a/data/trans_orig/P5706-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P5706-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0793428A-DAC9-4CC9-A75C-E61E8132EE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BC3AFF9-30AB-489C-A408-257DB4F29136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DB3E243-C6AE-491E-A461-DEE9FF8998AB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E64AC5E5-2AC3-456C-AD45-C15BDC2D98D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="1017">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -983,2110 +983,2113 @@
     <t>62,83%</t>
   </si>
   <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
   </si>
   <si>
     <t>65,83%</t>
   </si>
   <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2015 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2023 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
     <t>61,08%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas en 2023 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
   </si>
 </sst>
 </file>
@@ -3498,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6327E7DE-84EB-48A0-99A1-A07F63119670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C23157-E8F3-4936-93B8-B8179B1664C3}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5788,7 +5791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7DBDF4-F29E-408E-A677-50825F5F4C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F791A25-3704-4C3C-8564-1F84AEA444F4}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6020,7 +6023,7 @@
         <v>331</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -6029,13 +6032,13 @@
         <v>32712</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
@@ -6044,13 +6047,13 @@
         <v>64318</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,10 +6068,10 @@
         <v>5504</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>340</v>
@@ -6098,10 +6101,10 @@
         <v>305</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,7 +6122,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>98</v>
@@ -6137,7 +6140,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -6146,13 +6149,13 @@
         <v>2767</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6223,13 @@
         <v>437661</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>349</v>
@@ -6235,13 +6238,13 @@
         <v>371079</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>776</v>
@@ -6250,13 +6253,13 @@
         <v>808740</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,10 +6274,10 @@
         <v>182092</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>360</v>
@@ -6391,10 +6394,10 @@
         <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -6403,13 +6406,13 @@
         <v>21376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6427,13 @@
         <v>5204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6439,13 +6442,13 @@
         <v>3787</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -6454,13 +6457,13 @@
         <v>8992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>387</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6531,13 @@
         <v>424820</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>399</v>
@@ -6543,13 +6546,13 @@
         <v>431413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>799</v>
@@ -6558,13 +6561,13 @@
         <v>856232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6582,13 @@
         <v>170663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>192</v>
@@ -6594,13 +6597,13 @@
         <v>199904</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>360</v>
@@ -6612,10 +6615,10 @@
         <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6633,13 @@
         <v>69260</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -6645,13 +6648,13 @@
         <v>61433</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M18" s="7">
         <v>127</v>
@@ -6660,13 +6663,13 @@
         <v>130693</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>407</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,7 +6690,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -6696,13 +6699,13 @@
         <v>13393</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -6711,13 +6714,13 @@
         <v>25641</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>343</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6735,13 @@
         <v>4873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6747,13 +6750,13 @@
         <v>4706</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>379</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -6762,13 +6765,13 @@
         <v>9579</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,13 +6839,13 @@
         <v>379287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>306</v>
@@ -6851,13 +6854,13 @@
         <v>347008</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>645</v>
@@ -6869,10 +6872,10 @@
         <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,13 +6890,13 @@
         <v>152227</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>168</v>
@@ -6902,13 +6905,13 @@
         <v>192044</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>300</v>
@@ -6917,13 +6920,13 @@
         <v>344270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,13 +6941,13 @@
         <v>64354</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>290</v>
+        <v>443</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -6953,13 +6956,13 @@
         <v>58708</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M24" s="7">
         <v>110</v>
@@ -6968,13 +6971,13 @@
         <v>123063</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,10 +6995,10 @@
         <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -7004,13 +7007,13 @@
         <v>12303</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>385</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>255</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -7019,13 +7022,13 @@
         <v>24695</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>382</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +7043,13 @@
         <v>4378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -7055,13 +7058,13 @@
         <v>6137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -7070,13 +7073,13 @@
         <v>10515</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,13 +7147,13 @@
         <v>253950</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>207</v>
@@ -7159,13 +7162,13 @@
         <v>226446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M28" s="7">
         <v>441</v>
@@ -7174,13 +7177,13 @@
         <v>480396</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7198,13 @@
         <v>126930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="H29" s="7">
         <v>131</v>
@@ -7210,13 +7213,13 @@
         <v>145000</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="M29" s="7">
         <v>245</v>
@@ -7225,13 +7228,13 @@
         <v>271930</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,13 +7249,13 @@
         <v>36864</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>474</v>
+        <v>294</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -7261,13 +7264,13 @@
         <v>56673</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>476</v>
+        <v>37</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M30" s="7">
         <v>86</v>
@@ -7276,13 +7279,13 @@
         <v>93537</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,13 +7300,13 @@
         <v>9651</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>482</v>
+        <v>381</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -7312,13 +7315,13 @@
         <v>14539</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>378</v>
+        <v>492</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>493</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -7327,13 +7330,13 @@
         <v>24190</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>343</v>
+        <v>494</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>97</v>
+        <v>421</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,13 +7351,13 @@
         <v>986</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>487</v>
+        <v>341</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -7363,13 +7366,13 @@
         <v>4102</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -7381,10 +7384,10 @@
         <v>55</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,13 +7455,13 @@
         <v>277944</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H34" s="7">
         <v>326</v>
@@ -7467,13 +7470,13 @@
         <v>350839</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="M34" s="7">
         <v>578</v>
@@ -7482,13 +7485,13 @@
         <v>628783</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,13 +7506,13 @@
         <v>175468</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H35" s="7">
         <v>240</v>
@@ -7518,13 +7521,13 @@
         <v>253934</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>505</v>
+        <v>366</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="M35" s="7">
         <v>394</v>
@@ -7533,13 +7536,13 @@
         <v>429402</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,13 +7557,13 @@
         <v>79676</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="H36" s="7">
         <v>92</v>
@@ -7572,10 +7575,10 @@
         <v>295</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="M36" s="7">
         <v>166</v>
@@ -7584,13 +7587,13 @@
         <v>178036</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7608,13 @@
         <v>16308</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>409</v>
+        <v>525</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>97</v>
+        <v>378</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>518</v>
+        <v>179</v>
       </c>
       <c r="H37" s="7">
         <v>25</v>
@@ -7620,13 +7623,13 @@
         <v>27798</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>521</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -7635,13 +7638,13 @@
         <v>44106</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>523</v>
+        <v>181</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7659,13 @@
         <v>7226</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>525</v>
+        <v>45</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>526</v>
+        <v>135</v>
       </c>
       <c r="H38" s="7">
         <v>8</v>
@@ -7671,13 +7674,13 @@
         <v>8133</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>528</v>
+        <v>98</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>448</v>
+        <v>532</v>
       </c>
       <c r="M38" s="7">
         <v>14</v>
@@ -7689,10 +7692,10 @@
         <v>305</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>529</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,13 +7763,13 @@
         <v>2058360</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H40" s="7">
         <v>1865</v>
@@ -7775,13 +7778,13 @@
         <v>2010019</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M40" s="7">
         <v>3799</v>
@@ -7790,13 +7793,13 @@
         <v>4068380</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7814,13 @@
         <v>938667</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="H41" s="7">
         <v>1005</v>
@@ -7826,13 +7829,13 @@
         <v>1080301</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M41" s="7">
         <v>1877</v>
@@ -7841,13 +7844,13 @@
         <v>2018969</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7865,13 @@
         <v>331428</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H42" s="7">
         <v>325</v>
@@ -7877,13 +7880,13 @@
         <v>350165</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="M42" s="7">
         <v>640</v>
@@ -7895,10 +7898,10 @@
         <v>164</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>552</v>
+        <v>338</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>553</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,13 +7916,13 @@
         <v>67275</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H43" s="7">
         <v>73</v>
@@ -7928,13 +7931,13 @@
         <v>83241</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M43" s="7">
         <v>135</v>
@@ -7943,13 +7946,13 @@
         <v>150517</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>345</v>
+        <v>562</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>560</v>
+        <v>140</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7964,13 +7967,13 @@
         <v>22668</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>561</v>
+        <v>45</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H44" s="7">
         <v>26</v>
@@ -7979,13 +7982,13 @@
         <v>29632</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M44" s="7">
         <v>44</v>
@@ -7994,13 +7997,13 @@
         <v>52300</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>565</v>
+        <v>376</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>138</v>
+        <v>566</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>482</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8078,7 +8081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0211CF56-F890-4A57-A708-2F59904DD412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18682794-AB6F-45D8-A44A-53B2E1B0D576}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8095,7 +8098,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8202,13 +8205,13 @@
         <v>232166</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H4" s="7">
         <v>236</v>
@@ -8217,13 +8220,13 @@
         <v>233092</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>574</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="M4" s="7">
         <v>455</v>
@@ -8232,13 +8235,13 @@
         <v>465258</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8253,13 +8256,13 @@
         <v>142004</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="H5" s="7">
         <v>123</v>
@@ -8268,13 +8271,13 @@
         <v>119117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>578</v>
+        <v>365</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="M5" s="7">
         <v>256</v>
@@ -8283,13 +8286,13 @@
         <v>261122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8304,13 +8307,13 @@
         <v>37813</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>585</v>
+        <v>163</v>
       </c>
       <c r="H6" s="7">
         <v>42</v>
@@ -8319,13 +8322,13 @@
         <v>40345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>587</v>
+        <v>333</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M6" s="7">
         <v>77</v>
@@ -8334,13 +8337,13 @@
         <v>78158</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,13 +8358,13 @@
         <v>7480</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>596</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -8370,13 +8373,13 @@
         <v>2104</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -8385,13 +8388,13 @@
         <v>9584</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>525</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,10 +8412,10 @@
         <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -8427,7 +8430,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -8442,7 +8445,7 @@
         <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8510,13 +8513,13 @@
         <v>299905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H10" s="7">
         <v>322</v>
@@ -8525,13 +8528,13 @@
         <v>314995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="M10" s="7">
         <v>615</v>
@@ -8540,13 +8543,13 @@
         <v>614899</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>607</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>421</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8561,10 +8564,10 @@
         <v>214156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>609</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>610</v>
@@ -8633,7 +8636,7 @@
         <v>621</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>167</v>
+        <v>622</v>
       </c>
       <c r="M12" s="7">
         <v>109</v>
@@ -8642,13 +8645,13 @@
         <v>111551</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>369</v>
+        <v>623</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8663,13 +8666,13 @@
         <v>9973</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>624</v>
+        <v>463</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>412</v>
+        <v>491</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -8681,10 +8684,10 @@
         <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>565</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>625</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -8696,10 +8699,10 @@
         <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>568</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>626</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8714,10 +8717,10 @@
         <v>3925</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>378</v>
@@ -8735,7 +8738,7 @@
         <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -8744,13 +8747,13 @@
         <v>4848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>452</v>
+        <v>626</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8818,13 +8821,13 @@
         <v>351928</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>630</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>631</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>345</v>
@@ -8833,13 +8836,13 @@
         <v>342489</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="M16" s="7">
         <v>678</v>
@@ -8848,13 +8851,13 @@
         <v>694416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8869,13 +8872,13 @@
         <v>233884</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -8884,13 +8887,13 @@
         <v>223395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>641</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="M17" s="7">
         <v>448</v>
@@ -8899,13 +8902,13 @@
         <v>457279</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8920,13 +8923,13 @@
         <v>67344</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H18" s="7">
         <v>79</v>
@@ -8935,13 +8938,13 @@
         <v>78039</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M18" s="7">
         <v>143</v>
@@ -8950,13 +8953,13 @@
         <v>145383</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>551</v>
+        <v>649</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>652</v>
+        <v>372</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8971,13 +8974,13 @@
         <v>11233</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>654</v>
+        <v>492</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -8986,13 +8989,13 @@
         <v>14493</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>657</v>
+        <v>600</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>487</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -9004,10 +9007,10 @@
         <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>659</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>660</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9025,10 +9028,10 @@
         <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -9037,13 +9040,13 @@
         <v>2036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>380</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -9052,13 +9055,13 @@
         <v>5880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>663</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9126,13 +9129,13 @@
         <v>300873</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>666</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>301</v>
@@ -9141,13 +9144,13 @@
         <v>323087</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="M22" s="7">
         <v>574</v>
@@ -9156,13 +9159,13 @@
         <v>623959</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9177,13 +9180,13 @@
         <v>219567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="H23" s="7">
         <v>197</v>
@@ -9192,13 +9195,13 @@
         <v>215444</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="M23" s="7">
         <v>394</v>
@@ -9207,13 +9210,13 @@
         <v>435011</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>670</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9228,13 +9231,13 @@
         <v>97497</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="H24" s="7">
         <v>84</v>
@@ -9243,13 +9246,13 @@
         <v>89312</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="M24" s="7">
         <v>171</v>
@@ -9258,13 +9261,13 @@
         <v>186809</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9282,10 +9285,10 @@
         <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -9294,13 +9297,13 @@
         <v>16847</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -9309,13 +9312,13 @@
         <v>37369</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>559</v>
+        <v>686</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>687</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9330,13 +9333,13 @@
         <v>6532</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>695</v>
+        <v>462</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -9345,13 +9348,13 @@
         <v>4386</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>599</v>
+        <v>690</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>697</v>
+        <v>492</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -9363,10 +9366,10 @@
         <v>48</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>342</v>
+        <v>626</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9434,13 +9437,13 @@
         <v>222778</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="H28" s="7">
         <v>178</v>
@@ -9449,13 +9452,13 @@
         <v>208243</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="M28" s="7">
         <v>376</v>
@@ -9464,13 +9467,13 @@
         <v>431021</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9485,13 +9488,13 @@
         <v>162931</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="H29" s="7">
         <v>166</v>
@@ -9500,13 +9503,13 @@
         <v>187924</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="M29" s="7">
         <v>310</v>
@@ -9515,13 +9518,13 @@
         <v>350856</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9536,13 +9539,13 @@
         <v>80035</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="H30" s="7">
         <v>72</v>
@@ -9551,13 +9554,13 @@
         <v>81357</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="M30" s="7">
         <v>143</v>
@@ -9566,13 +9569,13 @@
         <v>161393</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>689</v>
+        <v>716</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9587,13 +9590,13 @@
         <v>9898</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>448</v>
+        <v>719</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>43</v>
+        <v>453</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -9602,13 +9605,13 @@
         <v>13289</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M31" s="7">
         <v>21</v>
@@ -9617,13 +9620,13 @@
         <v>23187</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>727</v>
+        <v>343</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>728</v>
+        <v>557</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>729</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9638,13 +9641,13 @@
         <v>1138</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -9653,13 +9656,13 @@
         <v>4990</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>490</v>
+        <v>724</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>731</v>
+        <v>683</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -9668,13 +9671,13 @@
         <v>6128</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>593</v>
+        <v>725</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>490</v>
+        <v>724</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>555</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9742,13 +9745,13 @@
         <v>255382</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H34" s="7">
         <v>246</v>
@@ -9757,13 +9760,13 @@
         <v>292923</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>113</v>
+        <v>731</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="M34" s="7">
         <v>515</v>
@@ -9772,13 +9775,13 @@
         <v>548305</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>678</v>
+        <v>734</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9793,13 +9796,13 @@
         <v>192953</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H35" s="7">
         <v>236</v>
@@ -9808,13 +9811,13 @@
         <v>276576</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="M35" s="7">
         <v>440</v>
@@ -9823,13 +9826,13 @@
         <v>469530</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9844,13 +9847,13 @@
         <v>126981</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>750</v>
+        <v>402</v>
       </c>
       <c r="H36" s="7">
         <v>141</v>
@@ -9859,13 +9862,13 @@
         <v>168013</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="M36" s="7">
         <v>277</v>
@@ -9874,13 +9877,13 @@
         <v>294994</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>756</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9895,13 +9898,13 @@
         <v>13227</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>226</v>
+        <v>455</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -9910,13 +9913,13 @@
         <v>33936</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>409</v>
+        <v>755</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -9925,13 +9928,13 @@
         <v>47163</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>761</v>
+        <v>178</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9949,10 +9952,10 @@
         <v>224</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -9961,13 +9964,13 @@
         <v>5212</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>697</v>
+        <v>97</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -9979,10 +9982,10 @@
         <v>55</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>764</v>
+        <v>723</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>765</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10050,13 +10053,13 @@
         <v>1663032</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="H40" s="7">
         <v>1628</v>
@@ -10065,13 +10068,13 @@
         <v>1714828</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="M40" s="7">
         <v>3213</v>
@@ -10080,13 +10083,13 @@
         <v>3377859</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>772</v>
+        <v>503</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10101,13 +10104,13 @@
         <v>1165496</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="H41" s="7">
         <v>1137</v>
@@ -10116,13 +10119,13 @@
         <v>1207375</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="M41" s="7">
         <v>2244</v>
@@ -10131,13 +10134,13 @@
         <v>2372870</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>26</v>
+        <v>774</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10152,13 +10155,13 @@
         <v>469764</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H42" s="7">
         <v>471</v>
@@ -10167,13 +10170,13 @@
         <v>508524</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="M42" s="7">
         <v>920</v>
@@ -10182,13 +10185,13 @@
         <v>978288</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10203,13 +10206,13 @@
         <v>72332</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>173</v>
+        <v>786</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>791</v>
+        <v>720</v>
       </c>
       <c r="H43" s="7">
         <v>81</v>
@@ -10221,10 +10224,10 @@
         <v>46</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="M43" s="7">
         <v>148</v>
@@ -10233,13 +10236,13 @@
         <v>161779</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>793</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10254,13 +10257,13 @@
         <v>18223</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>525</v>
+        <v>788</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>794</v>
+        <v>459</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>563</v>
+        <v>141</v>
       </c>
       <c r="H44" s="7">
         <v>16</v>
@@ -10269,10 +10272,10 @@
         <v>18644</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>48</v>
@@ -10284,13 +10287,13 @@
         <v>36867</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>796</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10368,7 +10371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E7A9C-7558-4619-9FC4-79261197D88B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4234142B-7B02-42D5-802E-075530E88185}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10385,7 +10388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10492,13 +10495,13 @@
         <v>287121</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="H4" s="7">
         <v>140</v>
@@ -10507,13 +10510,13 @@
         <v>238193</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="M4" s="7">
         <v>268</v>
@@ -10522,13 +10525,13 @@
         <v>525314</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10543,13 +10546,13 @@
         <v>71300</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -10558,13 +10561,13 @@
         <v>85386</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>683</v>
+        <v>805</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
@@ -10573,13 +10576,13 @@
         <v>156687</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10594,13 +10597,13 @@
         <v>15657</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>815</v>
+        <v>685</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>810</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -10609,13 +10612,13 @@
         <v>10901</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>482</v>
+        <v>812</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -10624,13 +10627,13 @@
         <v>26558</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>821</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10651,7 +10654,7 @@
         <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>822</v>
+        <v>371</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -10660,13 +10663,13 @@
         <v>17311</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>816</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -10678,10 +10681,10 @@
         <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10699,10 +10702,10 @@
         <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -10717,7 +10720,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -10732,7 +10735,7 @@
         <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>823</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10800,13 +10803,13 @@
         <v>266862</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="H10" s="7">
         <v>292</v>
@@ -10815,13 +10818,13 @@
         <v>335318</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="M10" s="7">
         <v>470</v>
@@ -10833,10 +10836,10 @@
         <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10851,13 +10854,13 @@
         <v>124277</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -10866,13 +10869,13 @@
         <v>126546</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>842</v>
+        <v>582</v>
       </c>
       <c r="M11" s="7">
         <v>219</v>
@@ -10881,13 +10884,13 @@
         <v>250822</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10902,13 +10905,13 @@
         <v>26491</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -10923,7 +10926,7 @@
         <v>297</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -10932,13 +10935,13 @@
         <v>47057</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>301</v>
+        <v>844</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10953,13 +10956,13 @@
         <v>5838</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>445</v>
+        <v>819</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>695</v>
+        <v>626</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -10968,13 +10971,13 @@
         <v>13244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>340</v>
+        <v>847</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>819</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -10983,13 +10986,13 @@
         <v>19081</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>853</v>
+        <v>532</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>849</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11004,13 +11007,13 @@
         <v>4928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>789</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>851</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -11019,13 +11022,13 @@
         <v>1603</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>661</v>
+        <v>853</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -11034,13 +11037,13 @@
         <v>6531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>764</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>697</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11108,13 +11111,13 @@
         <v>321836</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>857</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H16" s="7">
         <v>506</v>
@@ -11123,13 +11126,13 @@
         <v>355976</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>860</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>861</v>
       </c>
       <c r="M16" s="7">
         <v>811</v>
@@ -11138,13 +11141,13 @@
         <v>677812</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>863</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11159,13 +11162,13 @@
         <v>173614</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>866</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>867</v>
       </c>
       <c r="H17" s="7">
         <v>283</v>
@@ -11174,13 +11177,13 @@
         <v>188213</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>868</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>870</v>
       </c>
       <c r="M17" s="7">
         <v>461</v>
@@ -11189,13 +11192,13 @@
         <v>361827</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>871</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11210,13 +11213,13 @@
         <v>43060</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>875</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>434</v>
+        <v>873</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -11225,13 +11228,13 @@
         <v>28335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>852</v>
+        <v>874</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>876</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>877</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -11240,13 +11243,13 @@
         <v>71394</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>879</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11261,10 +11264,10 @@
         <v>11373</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>880</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>881</v>
@@ -11279,10 +11282,10 @@
         <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>383</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>178</v>
+        <v>882</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -11291,13 +11294,13 @@
         <v>19520</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>882</v>
+        <v>598</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>380</v>
+        <v>812</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>297</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11312,13 +11315,13 @@
         <v>6004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>883</v>
+        <v>564</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>884</v>
+        <v>789</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>523</v>
+        <v>817</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -11327,10 +11330,10 @@
         <v>2805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>226</v>
@@ -11342,13 +11345,13 @@
         <v>8809</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>886</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>887</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11416,13 +11419,13 @@
         <v>440629</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>889</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>890</v>
       </c>
       <c r="H22" s="7">
         <v>650</v>
@@ -11431,13 +11434,13 @@
         <v>437234</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>892</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>864</v>
       </c>
       <c r="M22" s="7">
         <v>1023</v>
@@ -11473,7 +11476,7 @@
         <v>897</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>199</v>
+        <v>898</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
@@ -11482,10 +11485,10 @@
         <v>224432</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>899</v>
+        <v>477</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>900</v>
@@ -11533,13 +11536,13 @@
         <v>52869</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>907</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>909</v>
       </c>
       <c r="M24" s="7">
         <v>124</v>
@@ -11548,13 +11551,13 @@
         <v>98522</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>877</v>
+        <v>908</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>647</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11572,7 +11575,7 @@
         <v>910</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>793</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>911</v>
@@ -11584,13 +11587,13 @@
         <v>19747</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>847</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>223</v>
+        <v>912</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -11599,13 +11602,13 @@
         <v>50345</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>692</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11620,13 +11623,13 @@
         <v>9504</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>487</v>
+        <v>916</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>593</v>
+        <v>917</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>692</v>
+        <v>918</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -11635,13 +11638,13 @@
         <v>8981</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>627</v>
+        <v>386</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>915</v>
+        <v>879</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -11650,13 +11653,13 @@
         <v>18484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11724,13 +11727,13 @@
         <v>290517</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="H28" s="7">
         <v>497</v>
@@ -11739,13 +11742,13 @@
         <v>294626</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="M28" s="7">
         <v>814</v>
@@ -11754,13 +11757,13 @@
         <v>585142</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11775,13 +11778,13 @@
         <v>212036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="H29" s="7">
         <v>330</v>
@@ -11790,13 +11793,13 @@
         <v>193031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="M29" s="7">
         <v>568</v>
@@ -11805,13 +11808,13 @@
         <v>405067</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11826,13 +11829,13 @@
         <v>62222</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>939</v>
+        <v>443</v>
       </c>
       <c r="H30" s="7">
         <v>115</v>
@@ -11841,13 +11844,13 @@
         <v>72421</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>438</v>
+        <v>942</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="M30" s="7">
         <v>181</v>
@@ -11856,13 +11859,13 @@
         <v>134643</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>37</v>
+        <v>623</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11877,13 +11880,13 @@
         <v>25635</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>945</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -11892,13 +11895,13 @@
         <v>24694</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>815</v>
+        <v>685</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>948</v>
+        <v>493</v>
       </c>
       <c r="M31" s="7">
         <v>71</v>
@@ -11907,13 +11910,13 @@
         <v>50329</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11928,13 +11931,13 @@
         <v>9748</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>952</v>
+        <v>854</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>796</v>
+        <v>953</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -11943,13 +11946,13 @@
         <v>10941</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>883</v>
+        <v>564</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>215</v>
+        <v>377</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -11958,13 +11961,13 @@
         <v>20689</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>954</v>
+        <v>348</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12032,13 +12035,13 @@
         <v>335525</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>499</v>
+        <v>955</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H34" s="7">
         <v>786</v>
@@ -12047,13 +12050,13 @@
         <v>412991</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="M34" s="7">
         <v>1279</v>
@@ -12062,13 +12065,13 @@
         <v>748516</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12083,13 +12086,13 @@
         <v>232119</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H35" s="7">
         <v>542</v>
@@ -12098,13 +12101,13 @@
         <v>406003</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>570</v>
+        <v>968</v>
       </c>
       <c r="M35" s="7">
         <v>883</v>
@@ -12113,13 +12116,13 @@
         <v>638122</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>678</v>
+        <v>734</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12134,13 +12137,13 @@
         <v>79554</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>969</v>
+        <v>625</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>970</v>
+        <v>37</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>971</v>
       </c>
       <c r="H36" s="7">
         <v>230</v>
@@ -12149,13 +12152,13 @@
         <v>122467</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>82</v>
+        <v>973</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>972</v>
+        <v>782</v>
       </c>
       <c r="M36" s="7">
         <v>348</v>
@@ -12164,10 +12167,10 @@
         <v>202021</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>516</v>
+        <v>622</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>973</v>
+        <v>444</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>974</v>
@@ -12218,10 +12221,10 @@
         <v>981</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>983</v>
+        <v>908</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12239,10 +12242,10 @@
         <v>133</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>765</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>984</v>
+        <v>172</v>
       </c>
       <c r="H38" s="7">
         <v>24</v>
@@ -12251,13 +12254,13 @@
         <v>13854</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>445</v>
+        <v>819</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>529</v>
+        <v>982</v>
       </c>
       <c r="M38" s="7">
         <v>44</v>
@@ -12266,13 +12269,13 @@
         <v>26808</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>527</v>
+        <v>44</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12340,13 +12343,13 @@
         <v>1942490</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>860</v>
+        <v>985</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>987</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>988</v>
       </c>
       <c r="H40" s="7">
         <v>2871</v>
@@ -12355,13 +12358,13 @@
         <v>2074336</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>990</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>991</v>
       </c>
       <c r="M40" s="7">
         <v>4665</v>
@@ -12370,13 +12373,13 @@
         <v>4016826</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>992</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>993</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12391,13 +12394,13 @@
         <v>1009916</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>996</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>997</v>
+        <v>403</v>
       </c>
       <c r="H41" s="7">
         <v>1690</v>
@@ -12406,13 +12409,13 @@
         <v>1223611</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>998</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>999</v>
       </c>
       <c r="M41" s="7">
         <v>2781</v>
@@ -12421,13 +12424,13 @@
         <v>2233527</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>1001</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>1002</v>
+        <v>868</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12442,13 +12445,13 @@
         <v>272637</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>1003</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>1005</v>
       </c>
       <c r="H42" s="7">
         <v>492</v>
@@ -12457,13 +12460,13 @@
         <v>307558</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>1006</v>
+        <v>442</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>583</v>
+        <v>1005</v>
       </c>
       <c r="M42" s="7">
         <v>794</v>
@@ -12472,13 +12475,13 @@
         <v>580196</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>435</v>
+        <v>1006</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>1008</v>
+        <v>257</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12493,13 +12496,13 @@
         <v>108203</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>1010</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>1011</v>
       </c>
       <c r="H43" s="7">
         <v>222</v>
@@ -12508,13 +12511,13 @@
         <v>148506</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>1012</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>976</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>1013</v>
       </c>
       <c r="M43" s="7">
         <v>352</v>
@@ -12523,13 +12526,13 @@
         <v>256709</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>296</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>137</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12544,13 +12547,13 @@
         <v>43137</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>100</v>
+        <v>497</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>140</v>
+        <v>421</v>
       </c>
       <c r="H44" s="7">
         <v>69</v>
@@ -12559,13 +12562,13 @@
         <v>41350</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>954</v>
+        <v>1015</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="M44" s="7">
         <v>116</v>
@@ -12574,13 +12577,13 @@
         <v>84488</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>100</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12592,7 +12595,7 @@
         <v>3364</v>
       </c>
       <c r="D45" s="7">
-        <v>3376384</v>
+        <v>3376383</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>56</v>
